--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3461.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3461.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tamim Iqbal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2623</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2625</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2635</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2637</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2645</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2653</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2661</t>
+          <t>2661</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2666</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2668</t>
+          <t>2668</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2671</t>
+          <t>2671</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2683</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2689</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2690</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2716</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2717</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2718</t>
+          <t>2718</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2770</t>
+          <t>2770</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2771</t>
+          <t>2771</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2772</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2802</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2803</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2804</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1856,7 +1921,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1908,7 +1973,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2808</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +2025,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2810</t>
+          <t>2810</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2012,7 +2077,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2812</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2064,7 +2129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2814</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2116,7 +2181,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2815</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2168,7 +2233,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2816</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2220,7 +2285,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2818</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2272,7 +2337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2823</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2324,7 +2389,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2827</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2376,7 +2441,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2833</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2428,7 +2493,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2838</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2480,7 +2545,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2845</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2532,7 +2597,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2875</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,7 +2649,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2877</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2636,7 +2701,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2879</t>
+          <t>2879</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2688,7 +2753,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2740,7 +2805,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2792,7 +2857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2844,7 +2909,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2892</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2896,7 +2961,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2893</t>
+          <t>2893</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2948,7 +3013,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2912</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3000,7 +3065,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2915</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3052,7 +3117,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2916</t>
+          <t>2916</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3104,7 +3169,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2919</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3156,7 +3221,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2921</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3208,7 +3273,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2923</t>
+          <t>2923</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3260,7 +3325,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3312,7 +3377,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3364,7 +3429,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3416,7 +3481,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2994</t>
+          <t>2994</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3468,7 +3533,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2995</t>
+          <t>2995</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3520,7 +3585,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2996</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3572,7 +3637,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2997</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3624,7 +3689,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2998</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3676,7 +3741,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3041</t>
+          <t>3041</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3728,7 +3793,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3043</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3780,7 +3845,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3044</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3832,7 +3897,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3048</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3884,7 +3949,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3049</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3936,7 +4001,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3988,7 +4053,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3069</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4040,7 +4105,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4092,7 +4157,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3072</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4144,7 +4209,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4196,7 +4261,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3081</t>
+          <t>3081</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4248,7 +4313,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4300,7 +4365,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4352,7 +4417,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4404,7 +4469,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4456,7 +4521,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3123</t>
+          <t>3123</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4508,7 +4573,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3125</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4560,7 +4625,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3128</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4612,7 +4677,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4664,7 +4729,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4716,7 +4781,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4768,7 +4833,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3157</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4820,7 +4885,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3158</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4872,7 +4937,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3160</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4924,7 +4989,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3205</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4976,7 +5041,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3207</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5028,7 +5093,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3209</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5080,7 +5145,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3213</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5132,7 +5197,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3235</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5184,7 +5249,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3243</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5236,7 +5301,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5288,7 +5353,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5340,7 +5405,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3266</t>
+          <t>3266</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5392,7 +5457,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5444,7 +5509,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3284</t>
+          <t>3284</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5496,7 +5561,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3285</t>
+          <t>3285</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5548,7 +5613,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3286</t>
+          <t>3286</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5600,7 +5665,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3312</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5652,7 +5717,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3313</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5704,7 +5769,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3315</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5756,7 +5821,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3317</t>
+          <t>3317</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5808,7 +5873,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3319</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5860,7 +5925,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5912,7 +5977,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5964,7 +6029,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6016,7 +6081,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3354</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6068,7 +6133,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3356</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6120,7 +6185,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3358</t>
+          <t>3358</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6172,7 +6237,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3394</t>
+          <t>3394</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6224,7 +6289,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3397</t>
+          <t>3397</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6276,7 +6341,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6328,7 +6393,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3403</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6380,7 +6445,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6432,7 +6497,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6484,7 +6549,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6536,7 +6601,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6588,7 +6653,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6640,7 +6705,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6692,7 +6757,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6744,7 +6809,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6796,7 +6861,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3496</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6848,7 +6913,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6900,7 +6965,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6952,7 +7017,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7004,7 +7069,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7044,7 +7109,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7052,7 +7116,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7104,7 +7168,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7156,7 +7220,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7208,7 +7272,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7260,7 +7324,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7312,7 +7376,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7364,7 +7428,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7416,7 +7480,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3704</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7468,7 +7532,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3708</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7520,7 +7584,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7572,7 +7636,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7624,7 +7688,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7676,7 +7740,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7728,7 +7792,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7780,7 +7844,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7832,7 +7896,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3797</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7884,7 +7948,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3798</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7936,7 +8000,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3799</t>
+          <t>3799</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7988,7 +8052,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8040,7 +8104,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3810</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8092,7 +8156,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8144,7 +8208,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8196,7 +8260,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8248,7 +8312,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8300,7 +8364,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3854</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8352,7 +8416,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3856</t>
+          <t>3856</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8404,7 +8468,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3857</t>
+          <t>3857</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8456,7 +8520,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8508,7 +8572,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8560,7 +8624,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8612,7 +8676,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8664,7 +8728,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8716,7 +8780,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8768,7 +8832,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8820,7 +8884,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8872,7 +8936,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8924,7 +8988,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8964,7 +9028,6 @@
           <t>164</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -8972,7 +9035,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9024,7 +9087,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9076,7 +9139,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4022</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9128,7 +9191,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9180,7 +9243,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4025</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9232,7 +9295,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9284,7 +9347,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9336,7 +9399,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9388,7 +9451,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9440,7 +9503,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4047</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9492,7 +9555,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9544,7 +9607,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4109</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9596,7 +9659,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9648,7 +9711,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4121</t>
+          <t>4121</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9700,7 +9763,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9752,7 +9815,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9804,7 +9867,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4179</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9856,7 +9919,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4180</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9908,7 +9971,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4181</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9960,7 +10023,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10012,7 +10075,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10064,7 +10127,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10116,7 +10179,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10168,7 +10231,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10220,7 +10283,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10272,7 +10335,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10324,7 +10387,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10376,7 +10439,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10428,7 +10491,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10480,7 +10543,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10532,7 +10595,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10584,7 +10647,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10636,7 +10699,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10688,7 +10751,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4325</t>
+          <t>4325</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10740,7 +10803,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10792,7 +10855,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10844,7 +10907,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4345</t>
+          <t>4345</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10896,7 +10959,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4349</t>
+          <t>4349</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10948,7 +11011,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -11000,7 +11063,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11052,7 +11115,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4358</t>
+          <t>4358</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11104,7 +11167,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4416</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11156,7 +11219,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4418</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11208,7 +11271,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4420</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11260,7 +11323,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4443</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11312,7 +11375,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4445</t>
+          <t>4445</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11364,7 +11427,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4447</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11416,7 +11479,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11468,7 +11531,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11520,7 +11583,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11572,7 +11635,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11624,7 +11687,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11676,7 +11739,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4465</t>
+          <t>4465</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11728,7 +11791,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4477</t>
+          <t>4477</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11780,7 +11843,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4479</t>
+          <t>4479</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11832,7 +11895,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4481</t>
+          <t>4481</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11884,7 +11947,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11936,7 +11999,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11988,7 +12051,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12040,7 +12103,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4550</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12092,7 +12155,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4557</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12144,7 +12207,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12196,7 +12259,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4606</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12248,7 +12311,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4611</t>
+          <t>4611</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12300,7 +12363,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4616</t>
+          <t>4616</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12352,7 +12415,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4626</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12404,7 +12467,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4627</t>
+          <t>4627</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12456,7 +12519,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4628</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12508,7 +12571,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12560,7 +12623,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12612,7 +12675,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12664,7 +12727,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12716,7 +12779,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12768,7 +12831,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12807,7 +12870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12829,7 +12892,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -12866,7 +12929,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2803</t>
+          <t>2803</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12903,7 +12966,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12929,6 +12992,601 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>0/7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4481</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.09%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13.06%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.77%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4611</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>18.99%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.46%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17.24%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>11.00%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18.04%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.47%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.20%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3461.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3461.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7109,6 +7108,7 @@
           <t>127</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>19/06/2014</t>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9028,6 +9028,7 @@
           <t>164</t>
         </is>
       </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
           <t>28/03/2017</t>
@@ -9040,7 +9041,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -12998,599 +12999,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4479</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4481</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>37.09%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.65%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13.06%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.52%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>55.77%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4606</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4611</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>44.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4616</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>18.99%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4626</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.46%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4627</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>17.24%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4628</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.42%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11.00%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>18.04%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.47%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>40.20%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>